--- a/PRD/PRD-AIUBLine.xlsx
+++ b/PRD/PRD-AIUBLine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\aiub-lifeline\PRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41DAA88D-F6AA-4A4D-A1D1-1144E33C0848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93819F9E-E9D5-4CFA-B09B-A4952D94F1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="147">
   <si>
     <t>Product Requirement Document (PRD) - Version: 1.0</t>
   </si>
@@ -1054,6 +1054,21 @@
   <si>
     <t>pivacy-policy</t>
   </si>
+  <si>
+    <t>Feature: 11</t>
+  </si>
+  <si>
+    <t>Feature: 12</t>
+  </si>
+  <si>
+    <t>Feature: 13</t>
+  </si>
+  <si>
+    <t>Feature: 14</t>
+  </si>
+  <si>
+    <t>Feature: 15</t>
+  </si>
 </sst>
 </file>
 
@@ -1580,14 +1595,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1595,15 +1602,20 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1614,6 +1626,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1922,8 +1937,8 @@
   </sheetPr>
   <dimension ref="A1:Y966"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1941,15 +1956,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -1997,15 +2012,15 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="79" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="76"/>
       <c r="F3" s="36"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
@@ -2028,15 +2043,15 @@
       <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="152.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
       <c r="F4" s="66"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
@@ -2059,15 +2074,15 @@
       <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
       <c r="F5" s="36"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
@@ -2090,15 +2105,15 @@
       <c r="Y5" s="12"/>
     </row>
     <row r="6" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="77"/>
-      <c r="E6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
@@ -2121,15 +2136,15 @@
       <c r="Y6" s="12"/>
     </row>
     <row r="7" spans="1:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="77"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="76"/>
       <c r="F7" s="36"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
@@ -2152,15 +2167,15 @@
       <c r="Y7" s="12"/>
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="75"/>
-      <c r="C8" s="79" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="75"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="36"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
@@ -2183,15 +2198,15 @@
       <c r="Y8" s="12"/>
     </row>
     <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="76"/>
       <c r="F9" s="36"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
@@ -2311,18 +2326,18 @@
       <c r="Y12" s="20"/>
     </row>
     <row r="13" spans="1:25" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="72"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
       <c r="I13" s="21"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -2385,18 +2400,18 @@
       <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
       <c r="I15" s="26"/>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -2459,18 +2474,18 @@
       <c r="Y16" s="20"/>
     </row>
     <row r="17" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
       <c r="I17" s="26"/>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -2619,18 +2634,18 @@
       <c r="Y20" s="20"/>
     </row>
     <row r="21" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
+      <c r="A21" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="68"/>
+      <c r="C21" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
       <c r="I21" s="26"/>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -2691,18 +2706,18 @@
       <c r="Y22" s="20"/>
     </row>
     <row r="23" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
       <c r="I23" s="26"/>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -2804,18 +2819,18 @@
       <c r="Y25" s="20"/>
     </row>
     <row r="26" spans="1:25" ht="36.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="71" t="s">
+      <c r="A26" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -2876,18 +2891,18 @@
       <c r="Y27" s="20"/>
     </row>
     <row r="28" spans="1:25" ht="63.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="72"/>
-      <c r="C28" s="73" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="69" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
       <c r="I28" s="26"/>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -2948,18 +2963,18 @@
       <c r="Y29" s="20"/>
     </row>
     <row r="30" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="71" t="s">
+      <c r="A30" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B30" s="72"/>
-      <c r="C30" s="73" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="26"/>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -3020,18 +3035,18 @@
       <c r="Y31" s="20"/>
     </row>
     <row r="32" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="68"/>
+      <c r="C32" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
       <c r="I32" s="26"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -3055,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="B33" s="48">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C33" s="44" t="s">
         <v>97</v>
@@ -3092,18 +3107,18 @@
       <c r="Y33" s="20"/>
     </row>
     <row r="34" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="72"/>
-      <c r="C34" s="73" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="26"/>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -3127,7 +3142,7 @@
         <v>20</v>
       </c>
       <c r="B35" s="48">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C35" s="44" t="s">
         <v>103</v>
@@ -3164,18 +3179,18 @@
       <c r="Y35" s="20"/>
     </row>
     <row r="36" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71" t="s">
-        <v>23</v>
+      <c r="A36" s="67" t="s">
+        <v>142</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="73" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
       <c r="I36" s="26"/>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -3199,7 +3214,7 @@
         <v>20</v>
       </c>
       <c r="B37" s="48">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C37" s="44" t="s">
         <v>110</v>
@@ -3236,18 +3251,18 @@
       <c r="Y37" s="20"/>
     </row>
     <row r="38" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
-        <v>23</v>
+      <c r="A38" s="67" t="s">
+        <v>143</v>
       </c>
-      <c r="B38" s="72"/>
-      <c r="C38" s="73" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="26"/>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -3271,7 +3286,7 @@
         <v>20</v>
       </c>
       <c r="B39" s="48">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C39" s="44" t="s">
         <v>115</v>
@@ -3308,18 +3323,18 @@
       <c r="Y39" s="20"/>
     </row>
     <row r="40" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="71" t="s">
-        <v>23</v>
+      <c r="A40" s="67" t="s">
+        <v>144</v>
       </c>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73" t="s">
+      <c r="B40" s="68"/>
+      <c r="C40" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="68"/>
       <c r="I40" s="26"/>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
@@ -3343,7 +3358,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="48">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C41" s="44" t="s">
         <v>123</v>
@@ -3380,18 +3395,18 @@
       <c r="Y41" s="20"/>
     </row>
     <row r="42" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="71" t="s">
-        <v>23</v>
+      <c r="A42" s="67" t="s">
+        <v>145</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="73" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
       <c r="I42" s="26"/>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
@@ -3415,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="B43" s="48">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C43" s="44" t="s">
         <v>128</v>
@@ -3452,18 +3467,18 @@
       <c r="Y43" s="20"/>
     </row>
     <row r="44" spans="1:25" ht="54" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="71" t="s">
-        <v>23</v>
+      <c r="A44" s="67" t="s">
+        <v>146</v>
       </c>
-      <c r="B44" s="72"/>
-      <c r="C44" s="73" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
       <c r="I44" s="26"/>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
@@ -3487,7 +3502,7 @@
         <v>20</v>
       </c>
       <c r="B45" s="48">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C45" s="44" t="s">
         <v>137</v>
@@ -3522,8 +3537,12 @@
       <c r="Y45" s="20"/>
     </row>
     <row r="46" spans="1:25" ht="105" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
+      <c r="A46" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="48">
+        <v>19</v>
+      </c>
       <c r="C46" s="44" t="s">
         <v>138</v>
       </c>
@@ -4937,23 +4956,23 @@
     <row r="100" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
+      <c r="C100" s="73"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="72"/>
       <c r="F100" s="70"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="69"/>
+      <c r="G100" s="71"/>
+      <c r="H100" s="72"/>
       <c r="I100" s="70"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="68"/>
-      <c r="L100" s="69"/>
+      <c r="J100" s="71"/>
+      <c r="K100" s="71"/>
+      <c r="L100" s="72"/>
       <c r="M100" s="70"/>
-      <c r="N100" s="68"/>
-      <c r="O100" s="69"/>
+      <c r="N100" s="71"/>
+      <c r="O100" s="72"/>
       <c r="P100" s="70"/>
-      <c r="Q100" s="68"/>
-      <c r="R100" s="68"/>
-      <c r="S100" s="69"/>
+      <c r="Q100" s="71"/>
+      <c r="R100" s="71"/>
+      <c r="S100" s="72"/>
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
       <c r="V100" s="11"/>
@@ -4964,23 +4983,23 @@
     <row r="101" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69"/>
+      <c r="C101" s="73"/>
+      <c r="D101" s="71"/>
+      <c r="E101" s="72"/>
       <c r="F101" s="70"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="69"/>
+      <c r="G101" s="71"/>
+      <c r="H101" s="72"/>
       <c r="I101" s="70"/>
-      <c r="J101" s="68"/>
-      <c r="K101" s="68"/>
-      <c r="L101" s="69"/>
+      <c r="J101" s="71"/>
+      <c r="K101" s="71"/>
+      <c r="L101" s="72"/>
       <c r="M101" s="70"/>
-      <c r="N101" s="68"/>
-      <c r="O101" s="69"/>
+      <c r="N101" s="71"/>
+      <c r="O101" s="72"/>
       <c r="P101" s="70"/>
-      <c r="Q101" s="68"/>
-      <c r="R101" s="68"/>
-      <c r="S101" s="69"/>
+      <c r="Q101" s="71"/>
+      <c r="R101" s="71"/>
+      <c r="S101" s="72"/>
       <c r="T101" s="11"/>
       <c r="U101" s="11"/>
       <c r="V101" s="11"/>
@@ -4991,23 +5010,23 @@
     <row r="102" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="69"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="72"/>
       <c r="F102" s="70"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="69"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="72"/>
       <c r="I102" s="70"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="69"/>
+      <c r="J102" s="71"/>
+      <c r="K102" s="71"/>
+      <c r="L102" s="72"/>
       <c r="M102" s="70"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="69"/>
+      <c r="N102" s="71"/>
+      <c r="O102" s="72"/>
       <c r="P102" s="70"/>
-      <c r="Q102" s="68"/>
-      <c r="R102" s="68"/>
-      <c r="S102" s="69"/>
+      <c r="Q102" s="71"/>
+      <c r="R102" s="71"/>
+      <c r="S102" s="72"/>
       <c r="T102" s="11"/>
       <c r="U102" s="11"/>
       <c r="V102" s="11"/>
@@ -5018,23 +5037,23 @@
     <row r="103" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="69"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="71"/>
+      <c r="E103" s="72"/>
       <c r="F103" s="70"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="69"/>
+      <c r="G103" s="71"/>
+      <c r="H103" s="72"/>
       <c r="I103" s="70"/>
-      <c r="J103" s="68"/>
-      <c r="K103" s="68"/>
-      <c r="L103" s="69"/>
+      <c r="J103" s="71"/>
+      <c r="K103" s="71"/>
+      <c r="L103" s="72"/>
       <c r="M103" s="70"/>
-      <c r="N103" s="68"/>
-      <c r="O103" s="69"/>
+      <c r="N103" s="71"/>
+      <c r="O103" s="72"/>
       <c r="P103" s="70"/>
-      <c r="Q103" s="68"/>
-      <c r="R103" s="68"/>
-      <c r="S103" s="69"/>
+      <c r="Q103" s="71"/>
+      <c r="R103" s="71"/>
+      <c r="S103" s="72"/>
       <c r="T103" s="11"/>
       <c r="U103" s="11"/>
       <c r="V103" s="11"/>
@@ -5045,23 +5064,23 @@
     <row r="104" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="69"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="71"/>
+      <c r="E104" s="72"/>
       <c r="F104" s="70"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="69"/>
+      <c r="G104" s="71"/>
+      <c r="H104" s="72"/>
       <c r="I104" s="70"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="69"/>
+      <c r="J104" s="71"/>
+      <c r="K104" s="71"/>
+      <c r="L104" s="72"/>
       <c r="M104" s="70"/>
-      <c r="N104" s="68"/>
-      <c r="O104" s="69"/>
+      <c r="N104" s="71"/>
+      <c r="O104" s="72"/>
       <c r="P104" s="70"/>
-      <c r="Q104" s="68"/>
-      <c r="R104" s="68"/>
-      <c r="S104" s="69"/>
+      <c r="Q104" s="71"/>
+      <c r="R104" s="71"/>
+      <c r="S104" s="72"/>
       <c r="T104" s="11"/>
       <c r="U104" s="11"/>
       <c r="V104" s="11"/>
@@ -5072,23 +5091,23 @@
     <row r="105" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="69"/>
+      <c r="C105" s="73"/>
+      <c r="D105" s="71"/>
+      <c r="E105" s="72"/>
       <c r="F105" s="70"/>
-      <c r="G105" s="68"/>
-      <c r="H105" s="69"/>
+      <c r="G105" s="71"/>
+      <c r="H105" s="72"/>
       <c r="I105" s="70"/>
-      <c r="J105" s="68"/>
-      <c r="K105" s="68"/>
-      <c r="L105" s="69"/>
+      <c r="J105" s="71"/>
+      <c r="K105" s="71"/>
+      <c r="L105" s="72"/>
       <c r="M105" s="70"/>
-      <c r="N105" s="68"/>
-      <c r="O105" s="69"/>
+      <c r="N105" s="71"/>
+      <c r="O105" s="72"/>
       <c r="P105" s="70"/>
-      <c r="Q105" s="68"/>
-      <c r="R105" s="68"/>
-      <c r="S105" s="69"/>
+      <c r="Q105" s="71"/>
+      <c r="R105" s="71"/>
+      <c r="S105" s="72"/>
       <c r="T105" s="11"/>
       <c r="U105" s="11"/>
       <c r="V105" s="11"/>
@@ -5099,23 +5118,23 @@
     <row r="106" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="69"/>
+      <c r="C106" s="73"/>
+      <c r="D106" s="71"/>
+      <c r="E106" s="72"/>
       <c r="F106" s="70"/>
-      <c r="G106" s="68"/>
-      <c r="H106" s="69"/>
+      <c r="G106" s="71"/>
+      <c r="H106" s="72"/>
       <c r="I106" s="70"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="68"/>
-      <c r="L106" s="69"/>
+      <c r="J106" s="71"/>
+      <c r="K106" s="71"/>
+      <c r="L106" s="72"/>
       <c r="M106" s="70"/>
-      <c r="N106" s="68"/>
-      <c r="O106" s="69"/>
+      <c r="N106" s="71"/>
+      <c r="O106" s="72"/>
       <c r="P106" s="70"/>
-      <c r="Q106" s="68"/>
-      <c r="R106" s="68"/>
-      <c r="S106" s="69"/>
+      <c r="Q106" s="71"/>
+      <c r="R106" s="71"/>
+      <c r="S106" s="72"/>
       <c r="T106" s="11"/>
       <c r="U106" s="11"/>
       <c r="V106" s="11"/>
@@ -5126,23 +5145,23 @@
     <row r="107" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="69"/>
+      <c r="C107" s="73"/>
+      <c r="D107" s="71"/>
+      <c r="E107" s="72"/>
       <c r="F107" s="70"/>
-      <c r="G107" s="68"/>
-      <c r="H107" s="69"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="72"/>
       <c r="I107" s="70"/>
-      <c r="J107" s="68"/>
-      <c r="K107" s="68"/>
-      <c r="L107" s="69"/>
+      <c r="J107" s="71"/>
+      <c r="K107" s="71"/>
+      <c r="L107" s="72"/>
       <c r="M107" s="70"/>
-      <c r="N107" s="68"/>
-      <c r="O107" s="69"/>
+      <c r="N107" s="71"/>
+      <c r="O107" s="72"/>
       <c r="P107" s="70"/>
-      <c r="Q107" s="68"/>
-      <c r="R107" s="68"/>
-      <c r="S107" s="69"/>
+      <c r="Q107" s="71"/>
+      <c r="R107" s="71"/>
+      <c r="S107" s="72"/>
       <c r="T107" s="11"/>
       <c r="U107" s="11"/>
       <c r="V107" s="11"/>
@@ -5153,23 +5172,23 @@
     <row r="108" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="69"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="71"/>
+      <c r="E108" s="72"/>
       <c r="F108" s="70"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="69"/>
+      <c r="G108" s="71"/>
+      <c r="H108" s="72"/>
       <c r="I108" s="70"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="68"/>
-      <c r="L108" s="69"/>
+      <c r="J108" s="71"/>
+      <c r="K108" s="71"/>
+      <c r="L108" s="72"/>
       <c r="M108" s="70"/>
-      <c r="N108" s="68"/>
-      <c r="O108" s="69"/>
+      <c r="N108" s="71"/>
+      <c r="O108" s="72"/>
       <c r="P108" s="70"/>
-      <c r="Q108" s="68"/>
-      <c r="R108" s="68"/>
-      <c r="S108" s="69"/>
+      <c r="Q108" s="71"/>
+      <c r="R108" s="71"/>
+      <c r="S108" s="72"/>
       <c r="T108" s="11"/>
       <c r="U108" s="11"/>
       <c r="V108" s="11"/>
@@ -5180,23 +5199,23 @@
     <row r="109" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="69"/>
+      <c r="C109" s="73"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="72"/>
       <c r="F109" s="70"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="69"/>
+      <c r="G109" s="71"/>
+      <c r="H109" s="72"/>
       <c r="I109" s="70"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="68"/>
-      <c r="L109" s="69"/>
+      <c r="J109" s="71"/>
+      <c r="K109" s="71"/>
+      <c r="L109" s="72"/>
       <c r="M109" s="70"/>
-      <c r="N109" s="68"/>
-      <c r="O109" s="69"/>
+      <c r="N109" s="71"/>
+      <c r="O109" s="72"/>
       <c r="P109" s="70"/>
-      <c r="Q109" s="68"/>
-      <c r="R109" s="68"/>
-      <c r="S109" s="69"/>
+      <c r="Q109" s="71"/>
+      <c r="R109" s="71"/>
+      <c r="S109" s="72"/>
       <c r="T109" s="11"/>
       <c r="U109" s="11"/>
       <c r="V109" s="11"/>
@@ -5207,23 +5226,23 @@
     <row r="110" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="69"/>
+      <c r="C110" s="73"/>
+      <c r="D110" s="71"/>
+      <c r="E110" s="72"/>
       <c r="F110" s="70"/>
-      <c r="G110" s="68"/>
-      <c r="H110" s="69"/>
+      <c r="G110" s="71"/>
+      <c r="H110" s="72"/>
       <c r="I110" s="70"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="68"/>
-      <c r="L110" s="69"/>
+      <c r="J110" s="71"/>
+      <c r="K110" s="71"/>
+      <c r="L110" s="72"/>
       <c r="M110" s="70"/>
-      <c r="N110" s="68"/>
-      <c r="O110" s="69"/>
+      <c r="N110" s="71"/>
+      <c r="O110" s="72"/>
       <c r="P110" s="70"/>
-      <c r="Q110" s="68"/>
-      <c r="R110" s="68"/>
-      <c r="S110" s="69"/>
+      <c r="Q110" s="71"/>
+      <c r="R110" s="71"/>
+      <c r="S110" s="72"/>
       <c r="T110" s="11"/>
       <c r="U110" s="11"/>
       <c r="V110" s="11"/>
@@ -5234,23 +5253,23 @@
     <row r="111" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="69"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="71"/>
+      <c r="E111" s="72"/>
       <c r="F111" s="70"/>
-      <c r="G111" s="68"/>
-      <c r="H111" s="69"/>
+      <c r="G111" s="71"/>
+      <c r="H111" s="72"/>
       <c r="I111" s="70"/>
-      <c r="J111" s="68"/>
-      <c r="K111" s="68"/>
-      <c r="L111" s="69"/>
+      <c r="J111" s="71"/>
+      <c r="K111" s="71"/>
+      <c r="L111" s="72"/>
       <c r="M111" s="70"/>
-      <c r="N111" s="68"/>
-      <c r="O111" s="69"/>
+      <c r="N111" s="71"/>
+      <c r="O111" s="72"/>
       <c r="P111" s="70"/>
-      <c r="Q111" s="68"/>
-      <c r="R111" s="68"/>
-      <c r="S111" s="69"/>
+      <c r="Q111" s="71"/>
+      <c r="R111" s="71"/>
+      <c r="S111" s="72"/>
       <c r="T111" s="11"/>
       <c r="U111" s="11"/>
       <c r="V111" s="11"/>
@@ -5261,23 +5280,23 @@
     <row r="112" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="69"/>
+      <c r="C112" s="73"/>
+      <c r="D112" s="71"/>
+      <c r="E112" s="72"/>
       <c r="F112" s="70"/>
-      <c r="G112" s="68"/>
-      <c r="H112" s="69"/>
+      <c r="G112" s="71"/>
+      <c r="H112" s="72"/>
       <c r="I112" s="70"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="68"/>
-      <c r="L112" s="69"/>
+      <c r="J112" s="71"/>
+      <c r="K112" s="71"/>
+      <c r="L112" s="72"/>
       <c r="M112" s="70"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="69"/>
+      <c r="N112" s="71"/>
+      <c r="O112" s="72"/>
       <c r="P112" s="70"/>
-      <c r="Q112" s="68"/>
-      <c r="R112" s="68"/>
-      <c r="S112" s="69"/>
+      <c r="Q112" s="71"/>
+      <c r="R112" s="71"/>
+      <c r="S112" s="72"/>
       <c r="T112" s="11"/>
       <c r="U112" s="11"/>
       <c r="V112" s="11"/>
@@ -5288,23 +5307,23 @@
     <row r="113" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="69"/>
+      <c r="C113" s="73"/>
+      <c r="D113" s="71"/>
+      <c r="E113" s="72"/>
       <c r="F113" s="70"/>
-      <c r="G113" s="68"/>
-      <c r="H113" s="69"/>
+      <c r="G113" s="71"/>
+      <c r="H113" s="72"/>
       <c r="I113" s="70"/>
-      <c r="J113" s="68"/>
-      <c r="K113" s="68"/>
-      <c r="L113" s="69"/>
+      <c r="J113" s="71"/>
+      <c r="K113" s="71"/>
+      <c r="L113" s="72"/>
       <c r="M113" s="70"/>
-      <c r="N113" s="68"/>
-      <c r="O113" s="69"/>
+      <c r="N113" s="71"/>
+      <c r="O113" s="72"/>
       <c r="P113" s="70"/>
-      <c r="Q113" s="68"/>
-      <c r="R113" s="68"/>
-      <c r="S113" s="69"/>
+      <c r="Q113" s="71"/>
+      <c r="R113" s="71"/>
+      <c r="S113" s="72"/>
       <c r="T113" s="11"/>
       <c r="U113" s="11"/>
       <c r="V113" s="11"/>
@@ -5315,23 +5334,23 @@
     <row r="114" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="69"/>
+      <c r="C114" s="73"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="72"/>
       <c r="F114" s="70"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="69"/>
+      <c r="G114" s="71"/>
+      <c r="H114" s="72"/>
       <c r="I114" s="70"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
-      <c r="L114" s="69"/>
+      <c r="J114" s="71"/>
+      <c r="K114" s="71"/>
+      <c r="L114" s="72"/>
       <c r="M114" s="70"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="69"/>
+      <c r="N114" s="71"/>
+      <c r="O114" s="72"/>
       <c r="P114" s="70"/>
-      <c r="Q114" s="68"/>
-      <c r="R114" s="68"/>
-      <c r="S114" s="69"/>
+      <c r="Q114" s="71"/>
+      <c r="R114" s="71"/>
+      <c r="S114" s="72"/>
       <c r="T114" s="11"/>
       <c r="U114" s="11"/>
       <c r="V114" s="11"/>
@@ -5342,23 +5361,23 @@
     <row r="115" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="69"/>
+      <c r="C115" s="73"/>
+      <c r="D115" s="71"/>
+      <c r="E115" s="72"/>
       <c r="F115" s="70"/>
-      <c r="G115" s="68"/>
-      <c r="H115" s="69"/>
+      <c r="G115" s="71"/>
+      <c r="H115" s="72"/>
       <c r="I115" s="70"/>
-      <c r="J115" s="68"/>
-      <c r="K115" s="68"/>
-      <c r="L115" s="69"/>
+      <c r="J115" s="71"/>
+      <c r="K115" s="71"/>
+      <c r="L115" s="72"/>
       <c r="M115" s="70"/>
-      <c r="N115" s="68"/>
-      <c r="O115" s="69"/>
+      <c r="N115" s="71"/>
+      <c r="O115" s="72"/>
       <c r="P115" s="70"/>
-      <c r="Q115" s="68"/>
-      <c r="R115" s="68"/>
-      <c r="S115" s="69"/>
+      <c r="Q115" s="71"/>
+      <c r="R115" s="71"/>
+      <c r="S115" s="72"/>
       <c r="T115" s="11"/>
       <c r="U115" s="11"/>
       <c r="V115" s="11"/>
@@ -5369,23 +5388,23 @@
     <row r="116" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="69"/>
+      <c r="C116" s="73"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72"/>
       <c r="F116" s="70"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="69"/>
+      <c r="G116" s="71"/>
+      <c r="H116" s="72"/>
       <c r="I116" s="70"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="68"/>
-      <c r="L116" s="69"/>
+      <c r="J116" s="71"/>
+      <c r="K116" s="71"/>
+      <c r="L116" s="72"/>
       <c r="M116" s="70"/>
-      <c r="N116" s="68"/>
-      <c r="O116" s="69"/>
+      <c r="N116" s="71"/>
+      <c r="O116" s="72"/>
       <c r="P116" s="70"/>
-      <c r="Q116" s="68"/>
-      <c r="R116" s="68"/>
-      <c r="S116" s="69"/>
+      <c r="Q116" s="71"/>
+      <c r="R116" s="71"/>
+      <c r="S116" s="72"/>
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11"/>
@@ -5396,23 +5415,23 @@
     <row r="117" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="69"/>
+      <c r="C117" s="73"/>
+      <c r="D117" s="71"/>
+      <c r="E117" s="72"/>
       <c r="F117" s="70"/>
-      <c r="G117" s="68"/>
-      <c r="H117" s="69"/>
+      <c r="G117" s="71"/>
+      <c r="H117" s="72"/>
       <c r="I117" s="70"/>
-      <c r="J117" s="68"/>
-      <c r="K117" s="68"/>
-      <c r="L117" s="69"/>
+      <c r="J117" s="71"/>
+      <c r="K117" s="71"/>
+      <c r="L117" s="72"/>
       <c r="M117" s="70"/>
-      <c r="N117" s="68"/>
-      <c r="O117" s="69"/>
+      <c r="N117" s="71"/>
+      <c r="O117" s="72"/>
       <c r="P117" s="70"/>
-      <c r="Q117" s="68"/>
-      <c r="R117" s="68"/>
-      <c r="S117" s="69"/>
+      <c r="Q117" s="71"/>
+      <c r="R117" s="71"/>
+      <c r="S117" s="72"/>
       <c r="T117" s="11"/>
       <c r="U117" s="11"/>
       <c r="V117" s="11"/>
@@ -5423,23 +5442,23 @@
     <row r="118" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="69"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="71"/>
+      <c r="E118" s="72"/>
       <c r="F118" s="70"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="69"/>
+      <c r="G118" s="71"/>
+      <c r="H118" s="72"/>
       <c r="I118" s="70"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="68"/>
-      <c r="L118" s="69"/>
+      <c r="J118" s="71"/>
+      <c r="K118" s="71"/>
+      <c r="L118" s="72"/>
       <c r="M118" s="70"/>
-      <c r="N118" s="68"/>
-      <c r="O118" s="69"/>
+      <c r="N118" s="71"/>
+      <c r="O118" s="72"/>
       <c r="P118" s="70"/>
-      <c r="Q118" s="68"/>
-      <c r="R118" s="68"/>
-      <c r="S118" s="69"/>
+      <c r="Q118" s="71"/>
+      <c r="R118" s="71"/>
+      <c r="S118" s="72"/>
       <c r="T118" s="11"/>
       <c r="U118" s="11"/>
       <c r="V118" s="11"/>
@@ -5450,23 +5469,23 @@
     <row r="119" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="69"/>
+      <c r="C119" s="73"/>
+      <c r="D119" s="71"/>
+      <c r="E119" s="72"/>
       <c r="F119" s="70"/>
-      <c r="G119" s="68"/>
-      <c r="H119" s="69"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="72"/>
       <c r="I119" s="70"/>
-      <c r="J119" s="68"/>
-      <c r="K119" s="68"/>
-      <c r="L119" s="69"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="72"/>
       <c r="M119" s="70"/>
-      <c r="N119" s="68"/>
-      <c r="O119" s="69"/>
+      <c r="N119" s="71"/>
+      <c r="O119" s="72"/>
       <c r="P119" s="70"/>
-      <c r="Q119" s="68"/>
-      <c r="R119" s="68"/>
-      <c r="S119" s="69"/>
+      <c r="Q119" s="71"/>
+      <c r="R119" s="71"/>
+      <c r="S119" s="72"/>
       <c r="T119" s="11"/>
       <c r="U119" s="11"/>
       <c r="V119" s="11"/>
@@ -5477,23 +5496,23 @@
     <row r="120" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="69"/>
+      <c r="C120" s="73"/>
+      <c r="D120" s="71"/>
+      <c r="E120" s="72"/>
       <c r="F120" s="70"/>
-      <c r="G120" s="68"/>
-      <c r="H120" s="69"/>
+      <c r="G120" s="71"/>
+      <c r="H120" s="72"/>
       <c r="I120" s="70"/>
-      <c r="J120" s="68"/>
-      <c r="K120" s="68"/>
-      <c r="L120" s="69"/>
+      <c r="J120" s="71"/>
+      <c r="K120" s="71"/>
+      <c r="L120" s="72"/>
       <c r="M120" s="70"/>
-      <c r="N120" s="68"/>
-      <c r="O120" s="69"/>
+      <c r="N120" s="71"/>
+      <c r="O120" s="72"/>
       <c r="P120" s="70"/>
-      <c r="Q120" s="68"/>
-      <c r="R120" s="68"/>
-      <c r="S120" s="69"/>
+      <c r="Q120" s="71"/>
+      <c r="R120" s="71"/>
+      <c r="S120" s="72"/>
       <c r="T120" s="11"/>
       <c r="U120" s="11"/>
       <c r="V120" s="11"/>
@@ -5504,23 +5523,23 @@
     <row r="121" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="69"/>
+      <c r="C121" s="73"/>
+      <c r="D121" s="71"/>
+      <c r="E121" s="72"/>
       <c r="F121" s="70"/>
-      <c r="G121" s="68"/>
-      <c r="H121" s="69"/>
+      <c r="G121" s="71"/>
+      <c r="H121" s="72"/>
       <c r="I121" s="70"/>
-      <c r="J121" s="68"/>
-      <c r="K121" s="68"/>
-      <c r="L121" s="69"/>
+      <c r="J121" s="71"/>
+      <c r="K121" s="71"/>
+      <c r="L121" s="72"/>
       <c r="M121" s="70"/>
-      <c r="N121" s="68"/>
-      <c r="O121" s="69"/>
+      <c r="N121" s="71"/>
+      <c r="O121" s="72"/>
       <c r="P121" s="70"/>
-      <c r="Q121" s="68"/>
-      <c r="R121" s="68"/>
-      <c r="S121" s="69"/>
+      <c r="Q121" s="71"/>
+      <c r="R121" s="71"/>
+      <c r="S121" s="72"/>
       <c r="T121" s="11"/>
       <c r="U121" s="11"/>
       <c r="V121" s="11"/>
@@ -5531,23 +5550,23 @@
     <row r="122" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="69"/>
+      <c r="C122" s="73"/>
+      <c r="D122" s="71"/>
+      <c r="E122" s="72"/>
       <c r="F122" s="70"/>
-      <c r="G122" s="68"/>
-      <c r="H122" s="69"/>
+      <c r="G122" s="71"/>
+      <c r="H122" s="72"/>
       <c r="I122" s="70"/>
-      <c r="J122" s="68"/>
-      <c r="K122" s="68"/>
-      <c r="L122" s="69"/>
+      <c r="J122" s="71"/>
+      <c r="K122" s="71"/>
+      <c r="L122" s="72"/>
       <c r="M122" s="70"/>
-      <c r="N122" s="68"/>
-      <c r="O122" s="69"/>
+      <c r="N122" s="71"/>
+      <c r="O122" s="72"/>
       <c r="P122" s="70"/>
-      <c r="Q122" s="68"/>
-      <c r="R122" s="68"/>
-      <c r="S122" s="69"/>
+      <c r="Q122" s="71"/>
+      <c r="R122" s="71"/>
+      <c r="S122" s="72"/>
       <c r="T122" s="11"/>
       <c r="U122" s="11"/>
       <c r="V122" s="11"/>
@@ -5558,23 +5577,23 @@
     <row r="123" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="69"/>
+      <c r="C123" s="73"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="72"/>
       <c r="F123" s="70"/>
-      <c r="G123" s="68"/>
-      <c r="H123" s="69"/>
+      <c r="G123" s="71"/>
+      <c r="H123" s="72"/>
       <c r="I123" s="70"/>
-      <c r="J123" s="68"/>
-      <c r="K123" s="68"/>
-      <c r="L123" s="69"/>
+      <c r="J123" s="71"/>
+      <c r="K123" s="71"/>
+      <c r="L123" s="72"/>
       <c r="M123" s="70"/>
-      <c r="N123" s="68"/>
-      <c r="O123" s="69"/>
+      <c r="N123" s="71"/>
+      <c r="O123" s="72"/>
       <c r="P123" s="70"/>
-      <c r="Q123" s="68"/>
-      <c r="R123" s="68"/>
-      <c r="S123" s="69"/>
+      <c r="Q123" s="71"/>
+      <c r="R123" s="71"/>
+      <c r="S123" s="72"/>
       <c r="T123" s="11"/>
       <c r="U123" s="11"/>
       <c r="V123" s="11"/>
@@ -5585,23 +5604,23 @@
     <row r="124" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="69"/>
+      <c r="C124" s="73"/>
+      <c r="D124" s="71"/>
+      <c r="E124" s="72"/>
       <c r="F124" s="70"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="69"/>
+      <c r="G124" s="71"/>
+      <c r="H124" s="72"/>
       <c r="I124" s="70"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="69"/>
+      <c r="J124" s="71"/>
+      <c r="K124" s="71"/>
+      <c r="L124" s="72"/>
       <c r="M124" s="70"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="69"/>
+      <c r="N124" s="71"/>
+      <c r="O124" s="72"/>
       <c r="P124" s="70"/>
-      <c r="Q124" s="68"/>
-      <c r="R124" s="68"/>
-      <c r="S124" s="69"/>
+      <c r="Q124" s="71"/>
+      <c r="R124" s="71"/>
+      <c r="S124" s="72"/>
       <c r="T124" s="11"/>
       <c r="U124" s="11"/>
       <c r="V124" s="11"/>
@@ -5612,23 +5631,23 @@
     <row r="125" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="69"/>
+      <c r="C125" s="73"/>
+      <c r="D125" s="71"/>
+      <c r="E125" s="72"/>
       <c r="F125" s="70"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="69"/>
+      <c r="G125" s="71"/>
+      <c r="H125" s="72"/>
       <c r="I125" s="70"/>
-      <c r="J125" s="68"/>
-      <c r="K125" s="68"/>
-      <c r="L125" s="69"/>
+      <c r="J125" s="71"/>
+      <c r="K125" s="71"/>
+      <c r="L125" s="72"/>
       <c r="M125" s="70"/>
-      <c r="N125" s="68"/>
-      <c r="O125" s="69"/>
+      <c r="N125" s="71"/>
+      <c r="O125" s="72"/>
       <c r="P125" s="70"/>
-      <c r="Q125" s="68"/>
-      <c r="R125" s="68"/>
-      <c r="S125" s="69"/>
+      <c r="Q125" s="71"/>
+      <c r="R125" s="71"/>
+      <c r="S125" s="72"/>
       <c r="T125" s="11"/>
       <c r="U125" s="11"/>
       <c r="V125" s="11"/>
@@ -5639,23 +5658,23 @@
     <row r="126" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="69"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="71"/>
+      <c r="E126" s="72"/>
       <c r="F126" s="70"/>
-      <c r="G126" s="68"/>
-      <c r="H126" s="69"/>
+      <c r="G126" s="71"/>
+      <c r="H126" s="72"/>
       <c r="I126" s="70"/>
-      <c r="J126" s="68"/>
-      <c r="K126" s="68"/>
-      <c r="L126" s="69"/>
+      <c r="J126" s="71"/>
+      <c r="K126" s="71"/>
+      <c r="L126" s="72"/>
       <c r="M126" s="70"/>
-      <c r="N126" s="68"/>
-      <c r="O126" s="69"/>
+      <c r="N126" s="71"/>
+      <c r="O126" s="72"/>
       <c r="P126" s="70"/>
-      <c r="Q126" s="68"/>
-      <c r="R126" s="68"/>
-      <c r="S126" s="69"/>
+      <c r="Q126" s="71"/>
+      <c r="R126" s="71"/>
+      <c r="S126" s="72"/>
       <c r="T126" s="11"/>
       <c r="U126" s="11"/>
       <c r="V126" s="11"/>
@@ -5666,23 +5685,23 @@
     <row r="127" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="69"/>
+      <c r="C127" s="73"/>
+      <c r="D127" s="71"/>
+      <c r="E127" s="72"/>
       <c r="F127" s="70"/>
-      <c r="G127" s="68"/>
-      <c r="H127" s="69"/>
+      <c r="G127" s="71"/>
+      <c r="H127" s="72"/>
       <c r="I127" s="70"/>
-      <c r="J127" s="68"/>
-      <c r="K127" s="68"/>
-      <c r="L127" s="69"/>
+      <c r="J127" s="71"/>
+      <c r="K127" s="71"/>
+      <c r="L127" s="72"/>
       <c r="M127" s="70"/>
-      <c r="N127" s="68"/>
-      <c r="O127" s="69"/>
+      <c r="N127" s="71"/>
+      <c r="O127" s="72"/>
       <c r="P127" s="70"/>
-      <c r="Q127" s="68"/>
-      <c r="R127" s="68"/>
-      <c r="S127" s="69"/>
+      <c r="Q127" s="71"/>
+      <c r="R127" s="71"/>
+      <c r="S127" s="72"/>
       <c r="T127" s="11"/>
       <c r="U127" s="11"/>
       <c r="V127" s="11"/>
@@ -5693,23 +5712,23 @@
     <row r="128" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="69"/>
+      <c r="C128" s="73"/>
+      <c r="D128" s="71"/>
+      <c r="E128" s="72"/>
       <c r="F128" s="70"/>
-      <c r="G128" s="68"/>
-      <c r="H128" s="69"/>
+      <c r="G128" s="71"/>
+      <c r="H128" s="72"/>
       <c r="I128" s="70"/>
-      <c r="J128" s="68"/>
-      <c r="K128" s="68"/>
-      <c r="L128" s="69"/>
+      <c r="J128" s="71"/>
+      <c r="K128" s="71"/>
+      <c r="L128" s="72"/>
       <c r="M128" s="70"/>
-      <c r="N128" s="68"/>
-      <c r="O128" s="69"/>
+      <c r="N128" s="71"/>
+      <c r="O128" s="72"/>
       <c r="P128" s="70"/>
-      <c r="Q128" s="68"/>
-      <c r="R128" s="68"/>
-      <c r="S128" s="69"/>
+      <c r="Q128" s="71"/>
+      <c r="R128" s="71"/>
+      <c r="S128" s="72"/>
       <c r="T128" s="11"/>
       <c r="U128" s="11"/>
       <c r="V128" s="11"/>
@@ -5720,23 +5739,23 @@
     <row r="129" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="69"/>
+      <c r="C129" s="73"/>
+      <c r="D129" s="71"/>
+      <c r="E129" s="72"/>
       <c r="F129" s="70"/>
-      <c r="G129" s="68"/>
-      <c r="H129" s="69"/>
+      <c r="G129" s="71"/>
+      <c r="H129" s="72"/>
       <c r="I129" s="70"/>
-      <c r="J129" s="68"/>
-      <c r="K129" s="68"/>
-      <c r="L129" s="69"/>
+      <c r="J129" s="71"/>
+      <c r="K129" s="71"/>
+      <c r="L129" s="72"/>
       <c r="M129" s="70"/>
-      <c r="N129" s="68"/>
-      <c r="O129" s="69"/>
+      <c r="N129" s="71"/>
+      <c r="O129" s="72"/>
       <c r="P129" s="70"/>
-      <c r="Q129" s="68"/>
-      <c r="R129" s="68"/>
-      <c r="S129" s="69"/>
+      <c r="Q129" s="71"/>
+      <c r="R129" s="71"/>
+      <c r="S129" s="72"/>
       <c r="T129" s="11"/>
       <c r="U129" s="11"/>
       <c r="V129" s="11"/>
@@ -5747,23 +5766,23 @@
     <row r="130" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="69"/>
+      <c r="C130" s="73"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="72"/>
       <c r="F130" s="70"/>
-      <c r="G130" s="68"/>
-      <c r="H130" s="69"/>
+      <c r="G130" s="71"/>
+      <c r="H130" s="72"/>
       <c r="I130" s="70"/>
-      <c r="J130" s="68"/>
-      <c r="K130" s="68"/>
-      <c r="L130" s="69"/>
+      <c r="J130" s="71"/>
+      <c r="K130" s="71"/>
+      <c r="L130" s="72"/>
       <c r="M130" s="70"/>
-      <c r="N130" s="68"/>
-      <c r="O130" s="69"/>
+      <c r="N130" s="71"/>
+      <c r="O130" s="72"/>
       <c r="P130" s="70"/>
-      <c r="Q130" s="68"/>
-      <c r="R130" s="68"/>
-      <c r="S130" s="69"/>
+      <c r="Q130" s="71"/>
+      <c r="R130" s="71"/>
+      <c r="S130" s="72"/>
       <c r="T130" s="11"/>
       <c r="U130" s="11"/>
       <c r="V130" s="11"/>
@@ -5774,23 +5793,23 @@
     <row r="131" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="69"/>
+      <c r="C131" s="73"/>
+      <c r="D131" s="71"/>
+      <c r="E131" s="72"/>
       <c r="F131" s="70"/>
-      <c r="G131" s="68"/>
-      <c r="H131" s="69"/>
+      <c r="G131" s="71"/>
+      <c r="H131" s="72"/>
       <c r="I131" s="70"/>
-      <c r="J131" s="68"/>
-      <c r="K131" s="68"/>
-      <c r="L131" s="69"/>
+      <c r="J131" s="71"/>
+      <c r="K131" s="71"/>
+      <c r="L131" s="72"/>
       <c r="M131" s="70"/>
-      <c r="N131" s="68"/>
-      <c r="O131" s="69"/>
+      <c r="N131" s="71"/>
+      <c r="O131" s="72"/>
       <c r="P131" s="70"/>
-      <c r="Q131" s="68"/>
-      <c r="R131" s="68"/>
-      <c r="S131" s="69"/>
+      <c r="Q131" s="71"/>
+      <c r="R131" s="71"/>
+      <c r="S131" s="72"/>
       <c r="T131" s="11"/>
       <c r="U131" s="11"/>
       <c r="V131" s="11"/>
@@ -5801,23 +5820,23 @@
     <row r="132" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="69"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="71"/>
+      <c r="E132" s="72"/>
       <c r="F132" s="70"/>
-      <c r="G132" s="68"/>
-      <c r="H132" s="69"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="72"/>
       <c r="I132" s="70"/>
-      <c r="J132" s="68"/>
-      <c r="K132" s="68"/>
-      <c r="L132" s="69"/>
+      <c r="J132" s="71"/>
+      <c r="K132" s="71"/>
+      <c r="L132" s="72"/>
       <c r="M132" s="70"/>
-      <c r="N132" s="68"/>
-      <c r="O132" s="69"/>
+      <c r="N132" s="71"/>
+      <c r="O132" s="72"/>
       <c r="P132" s="70"/>
-      <c r="Q132" s="68"/>
-      <c r="R132" s="68"/>
-      <c r="S132" s="69"/>
+      <c r="Q132" s="71"/>
+      <c r="R132" s="71"/>
+      <c r="S132" s="72"/>
       <c r="T132" s="11"/>
       <c r="U132" s="11"/>
       <c r="V132" s="11"/>
@@ -5828,23 +5847,23 @@
     <row r="133" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="69"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="71"/>
+      <c r="E133" s="72"/>
       <c r="F133" s="70"/>
-      <c r="G133" s="68"/>
-      <c r="H133" s="69"/>
+      <c r="G133" s="71"/>
+      <c r="H133" s="72"/>
       <c r="I133" s="70"/>
-      <c r="J133" s="68"/>
-      <c r="K133" s="68"/>
-      <c r="L133" s="69"/>
+      <c r="J133" s="71"/>
+      <c r="K133" s="71"/>
+      <c r="L133" s="72"/>
       <c r="M133" s="70"/>
-      <c r="N133" s="68"/>
-      <c r="O133" s="69"/>
+      <c r="N133" s="71"/>
+      <c r="O133" s="72"/>
       <c r="P133" s="70"/>
-      <c r="Q133" s="68"/>
-      <c r="R133" s="68"/>
-      <c r="S133" s="69"/>
+      <c r="Q133" s="71"/>
+      <c r="R133" s="71"/>
+      <c r="S133" s="72"/>
       <c r="T133" s="11"/>
       <c r="U133" s="11"/>
       <c r="V133" s="11"/>
@@ -5855,23 +5874,23 @@
     <row r="134" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="69"/>
+      <c r="C134" s="73"/>
+      <c r="D134" s="71"/>
+      <c r="E134" s="72"/>
       <c r="F134" s="70"/>
-      <c r="G134" s="68"/>
-      <c r="H134" s="69"/>
+      <c r="G134" s="71"/>
+      <c r="H134" s="72"/>
       <c r="I134" s="70"/>
-      <c r="J134" s="68"/>
-      <c r="K134" s="68"/>
-      <c r="L134" s="69"/>
+      <c r="J134" s="71"/>
+      <c r="K134" s="71"/>
+      <c r="L134" s="72"/>
       <c r="M134" s="70"/>
-      <c r="N134" s="68"/>
-      <c r="O134" s="69"/>
+      <c r="N134" s="71"/>
+      <c r="O134" s="72"/>
       <c r="P134" s="70"/>
-      <c r="Q134" s="68"/>
-      <c r="R134" s="68"/>
-      <c r="S134" s="69"/>
+      <c r="Q134" s="71"/>
+      <c r="R134" s="71"/>
+      <c r="S134" s="72"/>
       <c r="T134" s="11"/>
       <c r="U134" s="11"/>
       <c r="V134" s="11"/>
@@ -5882,23 +5901,23 @@
     <row r="135" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="69"/>
+      <c r="C135" s="73"/>
+      <c r="D135" s="71"/>
+      <c r="E135" s="72"/>
       <c r="F135" s="70"/>
-      <c r="G135" s="68"/>
-      <c r="H135" s="69"/>
+      <c r="G135" s="71"/>
+      <c r="H135" s="72"/>
       <c r="I135" s="70"/>
-      <c r="J135" s="68"/>
-      <c r="K135" s="68"/>
-      <c r="L135" s="69"/>
+      <c r="J135" s="71"/>
+      <c r="K135" s="71"/>
+      <c r="L135" s="72"/>
       <c r="M135" s="70"/>
-      <c r="N135" s="68"/>
-      <c r="O135" s="69"/>
+      <c r="N135" s="71"/>
+      <c r="O135" s="72"/>
       <c r="P135" s="70"/>
-      <c r="Q135" s="68"/>
-      <c r="R135" s="68"/>
-      <c r="S135" s="69"/>
+      <c r="Q135" s="71"/>
+      <c r="R135" s="71"/>
+      <c r="S135" s="72"/>
       <c r="T135" s="11"/>
       <c r="U135" s="11"/>
       <c r="V135" s="11"/>
@@ -5909,23 +5928,23 @@
     <row r="136" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="69"/>
+      <c r="C136" s="73"/>
+      <c r="D136" s="71"/>
+      <c r="E136" s="72"/>
       <c r="F136" s="70"/>
-      <c r="G136" s="68"/>
-      <c r="H136" s="69"/>
+      <c r="G136" s="71"/>
+      <c r="H136" s="72"/>
       <c r="I136" s="70"/>
-      <c r="J136" s="68"/>
-      <c r="K136" s="68"/>
-      <c r="L136" s="69"/>
+      <c r="J136" s="71"/>
+      <c r="K136" s="71"/>
+      <c r="L136" s="72"/>
       <c r="M136" s="70"/>
-      <c r="N136" s="68"/>
-      <c r="O136" s="69"/>
+      <c r="N136" s="71"/>
+      <c r="O136" s="72"/>
       <c r="P136" s="70"/>
-      <c r="Q136" s="68"/>
-      <c r="R136" s="68"/>
-      <c r="S136" s="69"/>
+      <c r="Q136" s="71"/>
+      <c r="R136" s="71"/>
+      <c r="S136" s="72"/>
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
       <c r="V136" s="11"/>
@@ -5936,23 +5955,23 @@
     <row r="137" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="14"/>
       <c r="B137" s="14"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="69"/>
+      <c r="C137" s="73"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="72"/>
       <c r="F137" s="70"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="69"/>
+      <c r="G137" s="71"/>
+      <c r="H137" s="72"/>
       <c r="I137" s="70"/>
-      <c r="J137" s="68"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="69"/>
+      <c r="J137" s="71"/>
+      <c r="K137" s="71"/>
+      <c r="L137" s="72"/>
       <c r="M137" s="70"/>
-      <c r="N137" s="68"/>
-      <c r="O137" s="69"/>
+      <c r="N137" s="71"/>
+      <c r="O137" s="72"/>
       <c r="P137" s="70"/>
-      <c r="Q137" s="68"/>
-      <c r="R137" s="68"/>
-      <c r="S137" s="69"/>
+      <c r="Q137" s="71"/>
+      <c r="R137" s="71"/>
+      <c r="S137" s="72"/>
       <c r="T137" s="11"/>
       <c r="U137" s="11"/>
       <c r="V137" s="11"/>
@@ -5963,23 +5982,23 @@
     <row r="138" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="14"/>
       <c r="B138" s="14"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="69"/>
+      <c r="C138" s="73"/>
+      <c r="D138" s="71"/>
+      <c r="E138" s="72"/>
       <c r="F138" s="70"/>
-      <c r="G138" s="68"/>
-      <c r="H138" s="69"/>
+      <c r="G138" s="71"/>
+      <c r="H138" s="72"/>
       <c r="I138" s="70"/>
-      <c r="J138" s="68"/>
-      <c r="K138" s="68"/>
-      <c r="L138" s="69"/>
+      <c r="J138" s="71"/>
+      <c r="K138" s="71"/>
+      <c r="L138" s="72"/>
       <c r="M138" s="70"/>
-      <c r="N138" s="68"/>
-      <c r="O138" s="69"/>
+      <c r="N138" s="71"/>
+      <c r="O138" s="72"/>
       <c r="P138" s="70"/>
-      <c r="Q138" s="68"/>
-      <c r="R138" s="68"/>
-      <c r="S138" s="69"/>
+      <c r="Q138" s="71"/>
+      <c r="R138" s="71"/>
+      <c r="S138" s="72"/>
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
       <c r="V138" s="11"/>
@@ -5990,23 +6009,23 @@
     <row r="139" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="14"/>
       <c r="B139" s="14"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="69"/>
+      <c r="C139" s="73"/>
+      <c r="D139" s="71"/>
+      <c r="E139" s="72"/>
       <c r="F139" s="70"/>
-      <c r="G139" s="68"/>
-      <c r="H139" s="69"/>
+      <c r="G139" s="71"/>
+      <c r="H139" s="72"/>
       <c r="I139" s="70"/>
-      <c r="J139" s="68"/>
-      <c r="K139" s="68"/>
-      <c r="L139" s="69"/>
+      <c r="J139" s="71"/>
+      <c r="K139" s="71"/>
+      <c r="L139" s="72"/>
       <c r="M139" s="70"/>
-      <c r="N139" s="68"/>
-      <c r="O139" s="69"/>
+      <c r="N139" s="71"/>
+      <c r="O139" s="72"/>
       <c r="P139" s="70"/>
-      <c r="Q139" s="68"/>
-      <c r="R139" s="68"/>
-      <c r="S139" s="69"/>
+      <c r="Q139" s="71"/>
+      <c r="R139" s="71"/>
+      <c r="S139" s="72"/>
       <c r="T139" s="11"/>
       <c r="U139" s="11"/>
       <c r="V139" s="11"/>
@@ -6017,23 +6036,23 @@
     <row r="140" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="14"/>
       <c r="B140" s="14"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="69"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="71"/>
+      <c r="E140" s="72"/>
       <c r="F140" s="70"/>
-      <c r="G140" s="68"/>
-      <c r="H140" s="69"/>
+      <c r="G140" s="71"/>
+      <c r="H140" s="72"/>
       <c r="I140" s="70"/>
-      <c r="J140" s="68"/>
-      <c r="K140" s="68"/>
-      <c r="L140" s="69"/>
+      <c r="J140" s="71"/>
+      <c r="K140" s="71"/>
+      <c r="L140" s="72"/>
       <c r="M140" s="70"/>
-      <c r="N140" s="68"/>
-      <c r="O140" s="69"/>
+      <c r="N140" s="71"/>
+      <c r="O140" s="72"/>
       <c r="P140" s="70"/>
-      <c r="Q140" s="68"/>
-      <c r="R140" s="68"/>
-      <c r="S140" s="69"/>
+      <c r="Q140" s="71"/>
+      <c r="R140" s="71"/>
+      <c r="S140" s="72"/>
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
       <c r="V140" s="11"/>
@@ -6044,23 +6063,23 @@
     <row r="141" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="14"/>
       <c r="B141" s="14"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="69"/>
+      <c r="C141" s="73"/>
+      <c r="D141" s="71"/>
+      <c r="E141" s="72"/>
       <c r="F141" s="70"/>
-      <c r="G141" s="68"/>
-      <c r="H141" s="69"/>
+      <c r="G141" s="71"/>
+      <c r="H141" s="72"/>
       <c r="I141" s="70"/>
-      <c r="J141" s="68"/>
-      <c r="K141" s="68"/>
-      <c r="L141" s="69"/>
+      <c r="J141" s="71"/>
+      <c r="K141" s="71"/>
+      <c r="L141" s="72"/>
       <c r="M141" s="70"/>
-      <c r="N141" s="68"/>
-      <c r="O141" s="69"/>
+      <c r="N141" s="71"/>
+      <c r="O141" s="72"/>
       <c r="P141" s="70"/>
-      <c r="Q141" s="68"/>
-      <c r="R141" s="68"/>
-      <c r="S141" s="69"/>
+      <c r="Q141" s="71"/>
+      <c r="R141" s="71"/>
+      <c r="S141" s="72"/>
       <c r="T141" s="11"/>
       <c r="U141" s="11"/>
       <c r="V141" s="11"/>
@@ -6071,23 +6090,23 @@
     <row r="142" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="14"/>
       <c r="B142" s="14"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="69"/>
+      <c r="C142" s="73"/>
+      <c r="D142" s="71"/>
+      <c r="E142" s="72"/>
       <c r="F142" s="70"/>
-      <c r="G142" s="68"/>
-      <c r="H142" s="69"/>
+      <c r="G142" s="71"/>
+      <c r="H142" s="72"/>
       <c r="I142" s="70"/>
-      <c r="J142" s="68"/>
-      <c r="K142" s="68"/>
-      <c r="L142" s="69"/>
+      <c r="J142" s="71"/>
+      <c r="K142" s="71"/>
+      <c r="L142" s="72"/>
       <c r="M142" s="70"/>
-      <c r="N142" s="68"/>
-      <c r="O142" s="69"/>
+      <c r="N142" s="71"/>
+      <c r="O142" s="72"/>
       <c r="P142" s="70"/>
-      <c r="Q142" s="68"/>
-      <c r="R142" s="68"/>
-      <c r="S142" s="69"/>
+      <c r="Q142" s="71"/>
+      <c r="R142" s="71"/>
+      <c r="S142" s="72"/>
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
       <c r="V142" s="11"/>
@@ -6098,23 +6117,23 @@
     <row r="143" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="14"/>
       <c r="B143" s="14"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="69"/>
+      <c r="C143" s="73"/>
+      <c r="D143" s="71"/>
+      <c r="E143" s="72"/>
       <c r="F143" s="70"/>
-      <c r="G143" s="68"/>
-      <c r="H143" s="69"/>
+      <c r="G143" s="71"/>
+      <c r="H143" s="72"/>
       <c r="I143" s="70"/>
-      <c r="J143" s="68"/>
-      <c r="K143" s="68"/>
-      <c r="L143" s="69"/>
+      <c r="J143" s="71"/>
+      <c r="K143" s="71"/>
+      <c r="L143" s="72"/>
       <c r="M143" s="70"/>
-      <c r="N143" s="68"/>
-      <c r="O143" s="69"/>
+      <c r="N143" s="71"/>
+      <c r="O143" s="72"/>
       <c r="P143" s="70"/>
-      <c r="Q143" s="68"/>
-      <c r="R143" s="68"/>
-      <c r="S143" s="69"/>
+      <c r="Q143" s="71"/>
+      <c r="R143" s="71"/>
+      <c r="S143" s="72"/>
       <c r="T143" s="11"/>
       <c r="U143" s="11"/>
       <c r="V143" s="11"/>
@@ -6125,23 +6144,23 @@
     <row r="144" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="14"/>
       <c r="B144" s="14"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="69"/>
+      <c r="C144" s="73"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="72"/>
       <c r="F144" s="70"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="69"/>
+      <c r="G144" s="71"/>
+      <c r="H144" s="72"/>
       <c r="I144" s="70"/>
-      <c r="J144" s="68"/>
-      <c r="K144" s="68"/>
-      <c r="L144" s="69"/>
+      <c r="J144" s="71"/>
+      <c r="K144" s="71"/>
+      <c r="L144" s="72"/>
       <c r="M144" s="70"/>
-      <c r="N144" s="68"/>
-      <c r="O144" s="69"/>
+      <c r="N144" s="71"/>
+      <c r="O144" s="72"/>
       <c r="P144" s="70"/>
-      <c r="Q144" s="68"/>
-      <c r="R144" s="68"/>
-      <c r="S144" s="69"/>
+      <c r="Q144" s="71"/>
+      <c r="R144" s="71"/>
+      <c r="S144" s="72"/>
       <c r="T144" s="11"/>
       <c r="U144" s="11"/>
       <c r="V144" s="11"/>
@@ -6152,23 +6171,23 @@
     <row r="145" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="14"/>
       <c r="B145" s="14"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="69"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="71"/>
+      <c r="E145" s="72"/>
       <c r="F145" s="70"/>
-      <c r="G145" s="68"/>
-      <c r="H145" s="69"/>
+      <c r="G145" s="71"/>
+      <c r="H145" s="72"/>
       <c r="I145" s="70"/>
-      <c r="J145" s="68"/>
-      <c r="K145" s="68"/>
-      <c r="L145" s="69"/>
+      <c r="J145" s="71"/>
+      <c r="K145" s="71"/>
+      <c r="L145" s="72"/>
       <c r="M145" s="70"/>
-      <c r="N145" s="68"/>
-      <c r="O145" s="69"/>
+      <c r="N145" s="71"/>
+      <c r="O145" s="72"/>
       <c r="P145" s="70"/>
-      <c r="Q145" s="68"/>
-      <c r="R145" s="68"/>
-      <c r="S145" s="69"/>
+      <c r="Q145" s="71"/>
+      <c r="R145" s="71"/>
+      <c r="S145" s="72"/>
       <c r="T145" s="11"/>
       <c r="U145" s="11"/>
       <c r="V145" s="11"/>
@@ -6179,23 +6198,23 @@
     <row r="146" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="14"/>
       <c r="B146" s="14"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="69"/>
+      <c r="C146" s="73"/>
+      <c r="D146" s="71"/>
+      <c r="E146" s="72"/>
       <c r="F146" s="70"/>
-      <c r="G146" s="68"/>
-      <c r="H146" s="69"/>
+      <c r="G146" s="71"/>
+      <c r="H146" s="72"/>
       <c r="I146" s="70"/>
-      <c r="J146" s="68"/>
-      <c r="K146" s="68"/>
-      <c r="L146" s="69"/>
+      <c r="J146" s="71"/>
+      <c r="K146" s="71"/>
+      <c r="L146" s="72"/>
       <c r="M146" s="70"/>
-      <c r="N146" s="68"/>
-      <c r="O146" s="69"/>
+      <c r="N146" s="71"/>
+      <c r="O146" s="72"/>
       <c r="P146" s="70"/>
-      <c r="Q146" s="68"/>
-      <c r="R146" s="68"/>
-      <c r="S146" s="69"/>
+      <c r="Q146" s="71"/>
+      <c r="R146" s="71"/>
+      <c r="S146" s="72"/>
       <c r="T146" s="11"/>
       <c r="U146" s="11"/>
       <c r="V146" s="11"/>
@@ -6206,23 +6225,23 @@
     <row r="147" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="14"/>
       <c r="B147" s="14"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="69"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="71"/>
+      <c r="E147" s="72"/>
       <c r="F147" s="70"/>
-      <c r="G147" s="68"/>
-      <c r="H147" s="69"/>
+      <c r="G147" s="71"/>
+      <c r="H147" s="72"/>
       <c r="I147" s="70"/>
-      <c r="J147" s="68"/>
-      <c r="K147" s="68"/>
-      <c r="L147" s="69"/>
+      <c r="J147" s="71"/>
+      <c r="K147" s="71"/>
+      <c r="L147" s="72"/>
       <c r="M147" s="70"/>
-      <c r="N147" s="68"/>
-      <c r="O147" s="69"/>
+      <c r="N147" s="71"/>
+      <c r="O147" s="72"/>
       <c r="P147" s="70"/>
-      <c r="Q147" s="68"/>
-      <c r="R147" s="68"/>
-      <c r="S147" s="69"/>
+      <c r="Q147" s="71"/>
+      <c r="R147" s="71"/>
+      <c r="S147" s="72"/>
       <c r="T147" s="11"/>
       <c r="U147" s="11"/>
       <c r="V147" s="11"/>
@@ -6233,23 +6252,23 @@
     <row r="148" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="14"/>
       <c r="B148" s="14"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="69"/>
+      <c r="C148" s="73"/>
+      <c r="D148" s="71"/>
+      <c r="E148" s="72"/>
       <c r="F148" s="70"/>
-      <c r="G148" s="68"/>
-      <c r="H148" s="69"/>
+      <c r="G148" s="71"/>
+      <c r="H148" s="72"/>
       <c r="I148" s="70"/>
-      <c r="J148" s="68"/>
-      <c r="K148" s="68"/>
-      <c r="L148" s="69"/>
+      <c r="J148" s="71"/>
+      <c r="K148" s="71"/>
+      <c r="L148" s="72"/>
       <c r="M148" s="70"/>
-      <c r="N148" s="68"/>
-      <c r="O148" s="69"/>
+      <c r="N148" s="71"/>
+      <c r="O148" s="72"/>
       <c r="P148" s="70"/>
-      <c r="Q148" s="68"/>
-      <c r="R148" s="68"/>
-      <c r="S148" s="69"/>
+      <c r="Q148" s="71"/>
+      <c r="R148" s="71"/>
+      <c r="S148" s="72"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
       <c r="V148" s="11"/>
@@ -6260,23 +6279,23 @@
     <row r="149" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="14"/>
       <c r="B149" s="14"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="69"/>
+      <c r="C149" s="73"/>
+      <c r="D149" s="71"/>
+      <c r="E149" s="72"/>
       <c r="F149" s="70"/>
-      <c r="G149" s="68"/>
-      <c r="H149" s="69"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="72"/>
       <c r="I149" s="70"/>
-      <c r="J149" s="68"/>
-      <c r="K149" s="68"/>
-      <c r="L149" s="69"/>
+      <c r="J149" s="71"/>
+      <c r="K149" s="71"/>
+      <c r="L149" s="72"/>
       <c r="M149" s="70"/>
-      <c r="N149" s="68"/>
-      <c r="O149" s="69"/>
+      <c r="N149" s="71"/>
+      <c r="O149" s="72"/>
       <c r="P149" s="70"/>
-      <c r="Q149" s="68"/>
-      <c r="R149" s="68"/>
-      <c r="S149" s="69"/>
+      <c r="Q149" s="71"/>
+      <c r="R149" s="71"/>
+      <c r="S149" s="72"/>
       <c r="T149" s="11"/>
       <c r="U149" s="11"/>
       <c r="V149" s="11"/>
@@ -6287,23 +6306,23 @@
     <row r="150" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="14"/>
       <c r="B150" s="14"/>
-      <c r="C150" s="67"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="69"/>
+      <c r="C150" s="73"/>
+      <c r="D150" s="71"/>
+      <c r="E150" s="72"/>
       <c r="F150" s="70"/>
-      <c r="G150" s="68"/>
-      <c r="H150" s="69"/>
+      <c r="G150" s="71"/>
+      <c r="H150" s="72"/>
       <c r="I150" s="70"/>
-      <c r="J150" s="68"/>
-      <c r="K150" s="68"/>
-      <c r="L150" s="69"/>
+      <c r="J150" s="71"/>
+      <c r="K150" s="71"/>
+      <c r="L150" s="72"/>
       <c r="M150" s="70"/>
-      <c r="N150" s="68"/>
-      <c r="O150" s="69"/>
+      <c r="N150" s="71"/>
+      <c r="O150" s="72"/>
       <c r="P150" s="70"/>
-      <c r="Q150" s="68"/>
-      <c r="R150" s="68"/>
-      <c r="S150" s="69"/>
+      <c r="Q150" s="71"/>
+      <c r="R150" s="71"/>
+      <c r="S150" s="72"/>
       <c r="T150" s="11"/>
       <c r="U150" s="11"/>
       <c r="V150" s="11"/>
@@ -6314,23 +6333,23 @@
     <row r="151" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="14"/>
       <c r="B151" s="14"/>
-      <c r="C151" s="67"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="69"/>
+      <c r="C151" s="73"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="72"/>
       <c r="F151" s="70"/>
-      <c r="G151" s="68"/>
-      <c r="H151" s="69"/>
+      <c r="G151" s="71"/>
+      <c r="H151" s="72"/>
       <c r="I151" s="70"/>
-      <c r="J151" s="68"/>
-      <c r="K151" s="68"/>
-      <c r="L151" s="69"/>
+      <c r="J151" s="71"/>
+      <c r="K151" s="71"/>
+      <c r="L151" s="72"/>
       <c r="M151" s="70"/>
-      <c r="N151" s="68"/>
-      <c r="O151" s="69"/>
+      <c r="N151" s="71"/>
+      <c r="O151" s="72"/>
       <c r="P151" s="70"/>
-      <c r="Q151" s="68"/>
-      <c r="R151" s="68"/>
-      <c r="S151" s="69"/>
+      <c r="Q151" s="71"/>
+      <c r="R151" s="71"/>
+      <c r="S151" s="72"/>
       <c r="T151" s="11"/>
       <c r="U151" s="11"/>
       <c r="V151" s="11"/>
@@ -6341,23 +6360,23 @@
     <row r="152" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="14"/>
       <c r="B152" s="14"/>
-      <c r="C152" s="67"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="69"/>
+      <c r="C152" s="73"/>
+      <c r="D152" s="71"/>
+      <c r="E152" s="72"/>
       <c r="F152" s="70"/>
-      <c r="G152" s="68"/>
-      <c r="H152" s="69"/>
+      <c r="G152" s="71"/>
+      <c r="H152" s="72"/>
       <c r="I152" s="70"/>
-      <c r="J152" s="68"/>
-      <c r="K152" s="68"/>
-      <c r="L152" s="69"/>
+      <c r="J152" s="71"/>
+      <c r="K152" s="71"/>
+      <c r="L152" s="72"/>
       <c r="M152" s="70"/>
-      <c r="N152" s="68"/>
-      <c r="O152" s="69"/>
+      <c r="N152" s="71"/>
+      <c r="O152" s="72"/>
       <c r="P152" s="70"/>
-      <c r="Q152" s="68"/>
-      <c r="R152" s="68"/>
-      <c r="S152" s="69"/>
+      <c r="Q152" s="71"/>
+      <c r="R152" s="71"/>
+      <c r="S152" s="72"/>
       <c r="T152" s="11"/>
       <c r="U152" s="11"/>
       <c r="V152" s="11"/>
@@ -6368,23 +6387,23 @@
     <row r="153" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="14"/>
       <c r="B153" s="14"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="69"/>
+      <c r="C153" s="73"/>
+      <c r="D153" s="71"/>
+      <c r="E153" s="72"/>
       <c r="F153" s="70"/>
-      <c r="G153" s="68"/>
-      <c r="H153" s="69"/>
+      <c r="G153" s="71"/>
+      <c r="H153" s="72"/>
       <c r="I153" s="70"/>
-      <c r="J153" s="68"/>
-      <c r="K153" s="68"/>
-      <c r="L153" s="69"/>
+      <c r="J153" s="71"/>
+      <c r="K153" s="71"/>
+      <c r="L153" s="72"/>
       <c r="M153" s="70"/>
-      <c r="N153" s="68"/>
-      <c r="O153" s="69"/>
+      <c r="N153" s="71"/>
+      <c r="O153" s="72"/>
       <c r="P153" s="70"/>
-      <c r="Q153" s="68"/>
-      <c r="R153" s="68"/>
-      <c r="S153" s="69"/>
+      <c r="Q153" s="71"/>
+      <c r="R153" s="71"/>
+      <c r="S153" s="72"/>
       <c r="T153" s="11"/>
       <c r="U153" s="11"/>
       <c r="V153" s="11"/>
@@ -6395,23 +6414,23 @@
     <row r="154" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="14"/>
       <c r="B154" s="14"/>
-      <c r="C154" s="67"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="69"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="71"/>
+      <c r="E154" s="72"/>
       <c r="F154" s="70"/>
-      <c r="G154" s="68"/>
-      <c r="H154" s="69"/>
+      <c r="G154" s="71"/>
+      <c r="H154" s="72"/>
       <c r="I154" s="70"/>
-      <c r="J154" s="68"/>
-      <c r="K154" s="68"/>
-      <c r="L154" s="69"/>
+      <c r="J154" s="71"/>
+      <c r="K154" s="71"/>
+      <c r="L154" s="72"/>
       <c r="M154" s="70"/>
-      <c r="N154" s="68"/>
-      <c r="O154" s="69"/>
+      <c r="N154" s="71"/>
+      <c r="O154" s="72"/>
       <c r="P154" s="70"/>
-      <c r="Q154" s="68"/>
-      <c r="R154" s="68"/>
-      <c r="S154" s="69"/>
+      <c r="Q154" s="71"/>
+      <c r="R154" s="71"/>
+      <c r="S154" s="72"/>
       <c r="T154" s="11"/>
       <c r="U154" s="11"/>
       <c r="V154" s="11"/>
@@ -6422,23 +6441,23 @@
     <row r="155" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="14"/>
       <c r="B155" s="14"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="69"/>
+      <c r="C155" s="73"/>
+      <c r="D155" s="71"/>
+      <c r="E155" s="72"/>
       <c r="F155" s="70"/>
-      <c r="G155" s="68"/>
-      <c r="H155" s="69"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="72"/>
       <c r="I155" s="70"/>
-      <c r="J155" s="68"/>
-      <c r="K155" s="68"/>
-      <c r="L155" s="69"/>
+      <c r="J155" s="71"/>
+      <c r="K155" s="71"/>
+      <c r="L155" s="72"/>
       <c r="M155" s="70"/>
-      <c r="N155" s="68"/>
-      <c r="O155" s="69"/>
+      <c r="N155" s="71"/>
+      <c r="O155" s="72"/>
       <c r="P155" s="70"/>
-      <c r="Q155" s="68"/>
-      <c r="R155" s="68"/>
-      <c r="S155" s="69"/>
+      <c r="Q155" s="71"/>
+      <c r="R155" s="71"/>
+      <c r="S155" s="72"/>
       <c r="T155" s="11"/>
       <c r="U155" s="11"/>
       <c r="V155" s="11"/>
@@ -6449,23 +6468,23 @@
     <row r="156" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="14"/>
       <c r="B156" s="14"/>
-      <c r="C156" s="67"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="69"/>
+      <c r="C156" s="73"/>
+      <c r="D156" s="71"/>
+      <c r="E156" s="72"/>
       <c r="F156" s="70"/>
-      <c r="G156" s="68"/>
-      <c r="H156" s="69"/>
+      <c r="G156" s="71"/>
+      <c r="H156" s="72"/>
       <c r="I156" s="70"/>
-      <c r="J156" s="68"/>
-      <c r="K156" s="68"/>
-      <c r="L156" s="69"/>
+      <c r="J156" s="71"/>
+      <c r="K156" s="71"/>
+      <c r="L156" s="72"/>
       <c r="M156" s="70"/>
-      <c r="N156" s="68"/>
-      <c r="O156" s="69"/>
+      <c r="N156" s="71"/>
+      <c r="O156" s="72"/>
       <c r="P156" s="70"/>
-      <c r="Q156" s="68"/>
-      <c r="R156" s="68"/>
-      <c r="S156" s="69"/>
+      <c r="Q156" s="71"/>
+      <c r="R156" s="71"/>
+      <c r="S156" s="72"/>
       <c r="T156" s="11"/>
       <c r="U156" s="11"/>
       <c r="V156" s="11"/>
@@ -6476,23 +6495,23 @@
     <row r="157" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="14"/>
       <c r="B157" s="14"/>
-      <c r="C157" s="67"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="69"/>
+      <c r="C157" s="73"/>
+      <c r="D157" s="71"/>
+      <c r="E157" s="72"/>
       <c r="F157" s="70"/>
-      <c r="G157" s="68"/>
-      <c r="H157" s="69"/>
+      <c r="G157" s="71"/>
+      <c r="H157" s="72"/>
       <c r="I157" s="70"/>
-      <c r="J157" s="68"/>
-      <c r="K157" s="68"/>
-      <c r="L157" s="69"/>
+      <c r="J157" s="71"/>
+      <c r="K157" s="71"/>
+      <c r="L157" s="72"/>
       <c r="M157" s="70"/>
-      <c r="N157" s="68"/>
-      <c r="O157" s="69"/>
+      <c r="N157" s="71"/>
+      <c r="O157" s="72"/>
       <c r="P157" s="70"/>
-      <c r="Q157" s="68"/>
-      <c r="R157" s="68"/>
-      <c r="S157" s="69"/>
+      <c r="Q157" s="71"/>
+      <c r="R157" s="71"/>
+      <c r="S157" s="72"/>
       <c r="T157" s="11"/>
       <c r="U157" s="11"/>
       <c r="V157" s="11"/>
@@ -6503,23 +6522,23 @@
     <row r="158" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="14"/>
       <c r="B158" s="14"/>
-      <c r="C158" s="67"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="69"/>
+      <c r="C158" s="73"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="72"/>
       <c r="F158" s="70"/>
-      <c r="G158" s="68"/>
-      <c r="H158" s="69"/>
+      <c r="G158" s="71"/>
+      <c r="H158" s="72"/>
       <c r="I158" s="70"/>
-      <c r="J158" s="68"/>
-      <c r="K158" s="68"/>
-      <c r="L158" s="69"/>
+      <c r="J158" s="71"/>
+      <c r="K158" s="71"/>
+      <c r="L158" s="72"/>
       <c r="M158" s="70"/>
-      <c r="N158" s="68"/>
-      <c r="O158" s="69"/>
+      <c r="N158" s="71"/>
+      <c r="O158" s="72"/>
       <c r="P158" s="70"/>
-      <c r="Q158" s="68"/>
-      <c r="R158" s="68"/>
-      <c r="S158" s="69"/>
+      <c r="Q158" s="71"/>
+      <c r="R158" s="71"/>
+      <c r="S158" s="72"/>
       <c r="T158" s="11"/>
       <c r="U158" s="11"/>
       <c r="V158" s="11"/>
@@ -6530,23 +6549,23 @@
     <row r="159" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="14"/>
       <c r="B159" s="14"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="69"/>
+      <c r="C159" s="73"/>
+      <c r="D159" s="71"/>
+      <c r="E159" s="72"/>
       <c r="F159" s="70"/>
-      <c r="G159" s="68"/>
-      <c r="H159" s="69"/>
+      <c r="G159" s="71"/>
+      <c r="H159" s="72"/>
       <c r="I159" s="70"/>
-      <c r="J159" s="68"/>
-      <c r="K159" s="68"/>
-      <c r="L159" s="69"/>
+      <c r="J159" s="71"/>
+      <c r="K159" s="71"/>
+      <c r="L159" s="72"/>
       <c r="M159" s="70"/>
-      <c r="N159" s="68"/>
-      <c r="O159" s="69"/>
+      <c r="N159" s="71"/>
+      <c r="O159" s="72"/>
       <c r="P159" s="70"/>
-      <c r="Q159" s="68"/>
-      <c r="R159" s="68"/>
-      <c r="S159" s="69"/>
+      <c r="Q159" s="71"/>
+      <c r="R159" s="71"/>
+      <c r="S159" s="72"/>
       <c r="T159" s="11"/>
       <c r="U159" s="11"/>
       <c r="V159" s="11"/>
@@ -6557,23 +6576,23 @@
     <row r="160" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="14"/>
       <c r="B160" s="14"/>
-      <c r="C160" s="67"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="69"/>
+      <c r="C160" s="73"/>
+      <c r="D160" s="71"/>
+      <c r="E160" s="72"/>
       <c r="F160" s="70"/>
-      <c r="G160" s="68"/>
-      <c r="H160" s="69"/>
+      <c r="G160" s="71"/>
+      <c r="H160" s="72"/>
       <c r="I160" s="70"/>
-      <c r="J160" s="68"/>
-      <c r="K160" s="68"/>
-      <c r="L160" s="69"/>
+      <c r="J160" s="71"/>
+      <c r="K160" s="71"/>
+      <c r="L160" s="72"/>
       <c r="M160" s="70"/>
-      <c r="N160" s="68"/>
-      <c r="O160" s="69"/>
+      <c r="N160" s="71"/>
+      <c r="O160" s="72"/>
       <c r="P160" s="70"/>
-      <c r="Q160" s="68"/>
-      <c r="R160" s="68"/>
-      <c r="S160" s="69"/>
+      <c r="Q160" s="71"/>
+      <c r="R160" s="71"/>
+      <c r="S160" s="72"/>
       <c r="T160" s="11"/>
       <c r="U160" s="11"/>
       <c r="V160" s="11"/>
@@ -6584,23 +6603,23 @@
     <row r="161" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="14"/>
       <c r="B161" s="14"/>
-      <c r="C161" s="67"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="69"/>
+      <c r="C161" s="73"/>
+      <c r="D161" s="71"/>
+      <c r="E161" s="72"/>
       <c r="F161" s="70"/>
-      <c r="G161" s="68"/>
-      <c r="H161" s="69"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="72"/>
       <c r="I161" s="70"/>
-      <c r="J161" s="68"/>
-      <c r="K161" s="68"/>
-      <c r="L161" s="69"/>
+      <c r="J161" s="71"/>
+      <c r="K161" s="71"/>
+      <c r="L161" s="72"/>
       <c r="M161" s="70"/>
-      <c r="N161" s="68"/>
-      <c r="O161" s="69"/>
+      <c r="N161" s="71"/>
+      <c r="O161" s="72"/>
       <c r="P161" s="70"/>
-      <c r="Q161" s="68"/>
-      <c r="R161" s="68"/>
-      <c r="S161" s="69"/>
+      <c r="Q161" s="71"/>
+      <c r="R161" s="71"/>
+      <c r="S161" s="72"/>
       <c r="T161" s="11"/>
       <c r="U161" s="11"/>
       <c r="V161" s="11"/>
@@ -28345,21 +28364,322 @@
     </row>
   </sheetData>
   <mergeCells count="355">
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="C104:E104"/>
+    <mergeCell ref="F104:H104"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="F106:H106"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="F105:H105"/>
+    <mergeCell ref="P100:S100"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="C100:E100"/>
+    <mergeCell ref="F100:H100"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="M100:O100"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="M105:O105"/>
+    <mergeCell ref="P105:S105"/>
+    <mergeCell ref="M106:O106"/>
+    <mergeCell ref="P106:S106"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="P107:S107"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="P108:S108"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="P111:S111"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="P109:S109"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="P110:S110"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="M114:O114"/>
+    <mergeCell ref="P114:S114"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="M112:O112"/>
+    <mergeCell ref="P112:S112"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="M113:O113"/>
+    <mergeCell ref="P113:S113"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="M117:O117"/>
+    <mergeCell ref="P117:S117"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="M115:O115"/>
+    <mergeCell ref="P115:S115"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="M116:O116"/>
+    <mergeCell ref="P116:S116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="M120:O120"/>
+    <mergeCell ref="P120:S120"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="M118:O118"/>
+    <mergeCell ref="P118:S118"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="M119:O119"/>
+    <mergeCell ref="P119:S119"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="M123:O123"/>
+    <mergeCell ref="P123:S123"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="M121:O121"/>
+    <mergeCell ref="P121:S121"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="M122:O122"/>
+    <mergeCell ref="P122:S122"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="M126:O126"/>
+    <mergeCell ref="P126:S126"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="M124:O124"/>
+    <mergeCell ref="P124:S124"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="M125:O125"/>
+    <mergeCell ref="P125:S125"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C117:E117"/>
+    <mergeCell ref="C118:E118"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="C120:E120"/>
+    <mergeCell ref="F110:H110"/>
+    <mergeCell ref="F111:H111"/>
+    <mergeCell ref="F112:H112"/>
+    <mergeCell ref="F113:H113"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="F108:H108"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="F116:H116"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="F127:H127"/>
+    <mergeCell ref="F128:H128"/>
+    <mergeCell ref="F129:H129"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="C122:E122"/>
+    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="F118:H118"/>
+    <mergeCell ref="F119:H119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="F122:H122"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="F115:H115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="F107:H107"/>
+    <mergeCell ref="C101:E101"/>
+    <mergeCell ref="C102:E102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="F103:H103"/>
+    <mergeCell ref="P140:S140"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="M142:O142"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="P148:S148"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="P101:S101"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="M104:O104"/>
+    <mergeCell ref="P104:S104"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="M102:O102"/>
+    <mergeCell ref="P102:S102"/>
+    <mergeCell ref="M103:O103"/>
+    <mergeCell ref="P103:S103"/>
+    <mergeCell ref="F123:H123"/>
+    <mergeCell ref="F124:H124"/>
+    <mergeCell ref="F125:H125"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="M144:O144"/>
+    <mergeCell ref="P144:S144"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="F130:H130"/>
+    <mergeCell ref="M154:O154"/>
+    <mergeCell ref="P154:S154"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="M152:O152"/>
+    <mergeCell ref="P152:S152"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="M153:O153"/>
+    <mergeCell ref="P153:S153"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="M150:O150"/>
+    <mergeCell ref="P150:S150"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="M141:O141"/>
+    <mergeCell ref="P141:S141"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="M139:O139"/>
+    <mergeCell ref="P139:S139"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="M140:O140"/>
+    <mergeCell ref="M129:O129"/>
+    <mergeCell ref="P129:S129"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="M127:O127"/>
+    <mergeCell ref="P127:S127"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="M128:O128"/>
+    <mergeCell ref="P128:S128"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="C123:E123"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C125:E125"/>
+    <mergeCell ref="C126:E126"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="C128:E128"/>
+    <mergeCell ref="C129:E129"/>
+    <mergeCell ref="C130:E130"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="C132:E132"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C134:E134"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C136:E136"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C138:E138"/>
+    <mergeCell ref="C139:E139"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="C141:E141"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C145:E145"/>
+    <mergeCell ref="C146:E146"/>
+    <mergeCell ref="C147:E147"/>
+    <mergeCell ref="C148:E148"/>
+    <mergeCell ref="C149:E149"/>
+    <mergeCell ref="C150:E150"/>
+    <mergeCell ref="C158:E158"/>
+    <mergeCell ref="C159:E159"/>
+    <mergeCell ref="C160:E160"/>
+    <mergeCell ref="C161:E161"/>
+    <mergeCell ref="C151:E151"/>
+    <mergeCell ref="C152:E152"/>
+    <mergeCell ref="C153:E153"/>
+    <mergeCell ref="C154:E154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="C156:E156"/>
+    <mergeCell ref="C157:E157"/>
+    <mergeCell ref="M132:O132"/>
+    <mergeCell ref="P132:S132"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="M130:O130"/>
+    <mergeCell ref="P130:S130"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="M131:O131"/>
+    <mergeCell ref="P131:S131"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="M135:O135"/>
+    <mergeCell ref="P135:S135"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="M133:O133"/>
+    <mergeCell ref="P133:S133"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="M134:O134"/>
+    <mergeCell ref="P134:S134"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="F131:H131"/>
+    <mergeCell ref="F132:H132"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="F134:H134"/>
+    <mergeCell ref="F135:H135"/>
+    <mergeCell ref="F136:H136"/>
+    <mergeCell ref="F137:H137"/>
+    <mergeCell ref="F138:H138"/>
+    <mergeCell ref="F139:H139"/>
+    <mergeCell ref="F161:H161"/>
+    <mergeCell ref="F152:H152"/>
+    <mergeCell ref="F153:H153"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F155:H155"/>
+    <mergeCell ref="F156:H156"/>
+    <mergeCell ref="F157:H157"/>
+    <mergeCell ref="F158:H158"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="F141:H141"/>
+    <mergeCell ref="F142:H142"/>
+    <mergeCell ref="F143:H143"/>
+    <mergeCell ref="F144:H144"/>
+    <mergeCell ref="F145:H145"/>
+    <mergeCell ref="F146:H146"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="F148:H148"/>
+    <mergeCell ref="F149:H149"/>
+    <mergeCell ref="F150:H150"/>
+    <mergeCell ref="F151:H151"/>
+    <mergeCell ref="F159:H159"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="M146:O146"/>
+    <mergeCell ref="P146:S146"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="M147:O147"/>
+    <mergeCell ref="P147:S147"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="M155:O155"/>
+    <mergeCell ref="P155:S155"/>
+    <mergeCell ref="M151:O151"/>
+    <mergeCell ref="P151:S151"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="M149:O149"/>
+    <mergeCell ref="P149:S149"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="M161:O161"/>
+    <mergeCell ref="P161:S161"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="M159:O159"/>
+    <mergeCell ref="P159:S159"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="M160:O160"/>
+    <mergeCell ref="P160:S160"/>
+    <mergeCell ref="I161:L161"/>
     <mergeCell ref="M138:O138"/>
     <mergeCell ref="P138:S138"/>
     <mergeCell ref="I136:L136"/>
@@ -28384,322 +28704,21 @@
     <mergeCell ref="I143:L143"/>
     <mergeCell ref="M143:O143"/>
     <mergeCell ref="P143:S143"/>
-    <mergeCell ref="M161:O161"/>
-    <mergeCell ref="P161:S161"/>
-    <mergeCell ref="I159:L159"/>
-    <mergeCell ref="M159:O159"/>
-    <mergeCell ref="P159:S159"/>
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="M160:O160"/>
-    <mergeCell ref="P160:S160"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="M146:O146"/>
-    <mergeCell ref="P146:S146"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="M147:O147"/>
-    <mergeCell ref="P147:S147"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="M155:O155"/>
-    <mergeCell ref="P155:S155"/>
-    <mergeCell ref="M151:O151"/>
-    <mergeCell ref="P151:S151"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="M149:O149"/>
-    <mergeCell ref="P149:S149"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="F161:H161"/>
-    <mergeCell ref="F152:H152"/>
-    <mergeCell ref="F153:H153"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F155:H155"/>
-    <mergeCell ref="F156:H156"/>
-    <mergeCell ref="F157:H157"/>
-    <mergeCell ref="F158:H158"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="F141:H141"/>
-    <mergeCell ref="F142:H142"/>
-    <mergeCell ref="F143:H143"/>
-    <mergeCell ref="F144:H144"/>
-    <mergeCell ref="F145:H145"/>
-    <mergeCell ref="F146:H146"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="F148:H148"/>
-    <mergeCell ref="F149:H149"/>
-    <mergeCell ref="F150:H150"/>
-    <mergeCell ref="F151:H151"/>
-    <mergeCell ref="F159:H159"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="F131:H131"/>
-    <mergeCell ref="F132:H132"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="F134:H134"/>
-    <mergeCell ref="F135:H135"/>
-    <mergeCell ref="F136:H136"/>
-    <mergeCell ref="F137:H137"/>
-    <mergeCell ref="F138:H138"/>
-    <mergeCell ref="F139:H139"/>
-    <mergeCell ref="M135:O135"/>
-    <mergeCell ref="P135:S135"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="M133:O133"/>
-    <mergeCell ref="P133:S133"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="M134:O134"/>
-    <mergeCell ref="P134:S134"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="M132:O132"/>
-    <mergeCell ref="P132:S132"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="M130:O130"/>
-    <mergeCell ref="P130:S130"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="M131:O131"/>
-    <mergeCell ref="P131:S131"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="C150:E150"/>
-    <mergeCell ref="C158:E158"/>
-    <mergeCell ref="C159:E159"/>
-    <mergeCell ref="C160:E160"/>
-    <mergeCell ref="C161:E161"/>
-    <mergeCell ref="C151:E151"/>
-    <mergeCell ref="C152:E152"/>
-    <mergeCell ref="C153:E153"/>
-    <mergeCell ref="C154:E154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="C156:E156"/>
-    <mergeCell ref="C157:E157"/>
-    <mergeCell ref="C141:E141"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C145:E145"/>
-    <mergeCell ref="C146:E146"/>
-    <mergeCell ref="C147:E147"/>
-    <mergeCell ref="C148:E148"/>
-    <mergeCell ref="C149:E149"/>
-    <mergeCell ref="C132:E132"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C134:E134"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C136:E136"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="C138:E138"/>
-    <mergeCell ref="C139:E139"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C123:E123"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C125:E125"/>
-    <mergeCell ref="C126:E126"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="C128:E128"/>
-    <mergeCell ref="C129:E129"/>
-    <mergeCell ref="C130:E130"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="M129:O129"/>
-    <mergeCell ref="P129:S129"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="M127:O127"/>
-    <mergeCell ref="P127:S127"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="M128:O128"/>
-    <mergeCell ref="P128:S128"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="M144:O144"/>
-    <mergeCell ref="P144:S144"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="F130:H130"/>
-    <mergeCell ref="M154:O154"/>
-    <mergeCell ref="P154:S154"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="M152:O152"/>
-    <mergeCell ref="P152:S152"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="M153:O153"/>
-    <mergeCell ref="P153:S153"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="M150:O150"/>
-    <mergeCell ref="P150:S150"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="M141:O141"/>
-    <mergeCell ref="P141:S141"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="M139:O139"/>
-    <mergeCell ref="P139:S139"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="M140:O140"/>
-    <mergeCell ref="P140:S140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="M142:O142"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="M148:O148"/>
-    <mergeCell ref="P148:S148"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="F101:H101"/>
-    <mergeCell ref="P101:S101"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="M104:O104"/>
-    <mergeCell ref="P104:S104"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="M102:O102"/>
-    <mergeCell ref="P102:S102"/>
-    <mergeCell ref="M103:O103"/>
-    <mergeCell ref="P103:S103"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="F125:H125"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="F127:H127"/>
-    <mergeCell ref="F128:H128"/>
-    <mergeCell ref="F129:H129"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="F117:H117"/>
-    <mergeCell ref="F118:H118"/>
-    <mergeCell ref="F119:H119"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="F121:H121"/>
-    <mergeCell ref="F122:H122"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="F115:H115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="F107:H107"/>
-    <mergeCell ref="C101:E101"/>
-    <mergeCell ref="C102:E102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="F103:H103"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C117:E117"/>
-    <mergeCell ref="C118:E118"/>
-    <mergeCell ref="C119:E119"/>
-    <mergeCell ref="C120:E120"/>
-    <mergeCell ref="F110:H110"/>
-    <mergeCell ref="F111:H111"/>
-    <mergeCell ref="F112:H112"/>
-    <mergeCell ref="F113:H113"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="F108:H108"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="F116:H116"/>
-    <mergeCell ref="M126:O126"/>
-    <mergeCell ref="P126:S126"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="M124:O124"/>
-    <mergeCell ref="P124:S124"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="M125:O125"/>
-    <mergeCell ref="P125:S125"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="M123:O123"/>
-    <mergeCell ref="P123:S123"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="M121:O121"/>
-    <mergeCell ref="P121:S121"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="M122:O122"/>
-    <mergeCell ref="P122:S122"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="M120:O120"/>
-    <mergeCell ref="P120:S120"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="M118:O118"/>
-    <mergeCell ref="P118:S118"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="M119:O119"/>
-    <mergeCell ref="P119:S119"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="M117:O117"/>
-    <mergeCell ref="P117:S117"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="M115:O115"/>
-    <mergeCell ref="P115:S115"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="M116:O116"/>
-    <mergeCell ref="P116:S116"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="M114:O114"/>
-    <mergeCell ref="P114:S114"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="M112:O112"/>
-    <mergeCell ref="P112:S112"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="M113:O113"/>
-    <mergeCell ref="P113:S113"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="P107:S107"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="P108:S108"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="P111:S111"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="M109:O109"/>
-    <mergeCell ref="P109:S109"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="P110:S110"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="C104:E104"/>
-    <mergeCell ref="F104:H104"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="F106:H106"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="F105:H105"/>
-    <mergeCell ref="P100:S100"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C100:E100"/>
-    <mergeCell ref="F100:H100"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="M100:O100"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="M105:O105"/>
-    <mergeCell ref="P105:S105"/>
-    <mergeCell ref="M106:O106"/>
-    <mergeCell ref="P106:S106"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D4">
     <cfRule type="colorScale" priority="1">
@@ -28717,23 +28736,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d793dd02-5f71-4855-b8ed-d726909a186d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100996F6DA676FCD249AE79B19CEAC5898F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8fa8f85493bcf04c7477d5f30897fe60">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c87aeec2-ef6e-4c43-b419-d0590f59f6cd" xmlns:ns4="d793dd02-5f71-4855-b8ed-d726909a186d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a645f85cf1ab6843bdf7468ab574aafb" ns3:_="" ns4:_="">
     <xsd:import namespace="c87aeec2-ef6e-4c43-b419-d0590f59f6cd"/>
@@ -28962,10 +28964,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d793dd02-5f71-4855-b8ed-d726909a186d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{856A9CE4-136F-4D22-B88F-EC3B5DAA976E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c87aeec2-ef6e-4c43-b419-d0590f59f6cd"/>
+    <ds:schemaRef ds:uri="d793dd02-5f71-4855-b8ed-d726909a186d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28988,20 +29018,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{856A9CE4-136F-4D22-B88F-EC3B5DAA976E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDE45D4B-B629-4110-ABAC-4B0F11E7BBFD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c87aeec2-ef6e-4c43-b419-d0590f59f6cd"/>
-    <ds:schemaRef ds:uri="d793dd02-5f71-4855-b8ed-d726909a186d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>